--- a/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
+++ b/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>UT(0-0-3)</t>
+  </si>
+  <si>
+    <t>UT(0-0-14)</t>
   </si>
 </sst>
 </file>
@@ -946,7 +949,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +992,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1056,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1116,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1182,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1245,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1343,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1402,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1467,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1510,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1585,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1771,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1837,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1895,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1961,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2017,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2092,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2135,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2201,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2257,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2867,7 +2870,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>1.2439999999999998</v>
+        <v>1.2150000000000034</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3361,11 +3364,15 @@
       <c r="A33" s="40">
         <v>44712</v>
       </c>
-      <c r="B33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C33" s="13">
         <v>1.25</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>2.9000000000000012E-2</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
@@ -5397,11 +5404,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
+++ b/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>UT(0-0-14)</t>
+  </si>
+  <si>
+    <t>UT0-0-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
   </si>
 </sst>
 </file>
@@ -2353,7 +2359,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2700,12 +2706,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A16" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,7 +2876,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>1.2150000000000034</v>
+        <v>1.1940000000000026</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3595,19 +3601,19 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>44926</v>
-      </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="39"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -3615,17 +3621,23 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="39"/>
+      <c r="A44" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="39">
+        <v>1.7000000000000001E-2</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
@@ -3633,19 +3645,17 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
-        <v>44927</v>
+      <c r="A45" s="48" t="s">
+        <v>64</v>
       </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C45" s="13"/>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -3654,7 +3664,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13">
@@ -3674,17 +3684,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>65</v>
-      </c>
+        <v>44958</v>
+      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="13">
         <v>1.25</v>
       </c>
-      <c r="D47" s="39">
-        <v>10</v>
-      </c>
+      <c r="D47" s="39"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
@@ -3694,42 +3700,40 @@
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>10</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H48" s="39">
-        <v>3</v>
-      </c>
+      <c r="H48" s="39"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -3741,56 +3745,62 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H49" s="39"/>
+      <c r="H49" s="39">
+        <v>3</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="49">
-        <v>45078</v>
+      <c r="K49" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>45047</v>
+      </c>
       <c r="B50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="49">
-        <v>45102</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A51" s="40"/>
+      <c r="B51" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="13"/>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="49">
+        <v>45102</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -3810,7 +3820,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -3830,7 +3840,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -3850,36 +3860,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="13"/>
-      <c r="D55" s="39">
-        <v>5</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>45200</v>
+      </c>
       <c r="B56" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
@@ -3891,16 +3899,18 @@
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
       <c r="K56" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B57" s="20"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C57" s="13"/>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>8</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13" t="str">
@@ -3910,11 +3920,13 @@
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -3932,7 +3944,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -3950,7 +3962,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3968,7 +3980,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3986,7 +3998,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4004,7 +4016,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4022,7 +4034,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4040,7 +4052,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4058,7 +4070,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4076,7 +4088,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4094,7 +4106,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4112,7 +4124,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4130,7 +4142,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4148,7 +4160,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4166,7 +4178,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4184,7 +4196,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4202,7 +4214,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4220,7 +4232,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4238,7 +4250,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4256,7 +4268,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4274,7 +4286,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4292,7 +4304,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4310,7 +4322,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4328,7 +4340,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4346,7 +4358,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4364,7 +4376,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4382,7 +4394,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4400,7 +4412,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4418,7 +4430,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4436,7 +4448,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4454,7 +4466,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4472,7 +4484,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4490,7 +4502,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4508,7 +4520,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4526,7 +4538,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4544,7 +4556,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4562,7 +4574,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4580,7 +4592,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4598,7 +4610,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4616,7 +4628,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4634,7 +4646,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4652,7 +4664,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4670,7 +4682,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4688,7 +4700,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4706,7 +4718,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4724,7 +4736,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4742,7 +4754,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4760,7 +4772,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4778,7 +4790,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4796,7 +4808,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4814,7 +4826,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4832,7 +4844,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4850,7 +4862,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4868,7 +4880,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4886,7 +4898,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4904,7 +4916,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4922,7 +4934,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4940,7 +4952,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4958,7 +4970,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4976,7 +4988,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -4994,7 +5006,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5012,7 +5024,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5030,7 +5042,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5048,7 +5060,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5066,7 +5078,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5084,7 +5096,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5102,7 +5114,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5119,7 +5131,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>47270</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5279,20 +5293,36 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H135" s="43"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5404,11 +5434,11 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>2.9000000000000012E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
+++ b/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>02/16,19-23,26-29/2024</t>
   </si>
 </sst>
 </file>
@@ -2359,7 +2365,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2706,12 +2712,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2882,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>1.1940000000000026</v>
+        <v>3.6940000000000026</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2886,7 +2892,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>31.25</v>
+        <v>33.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3929,13 +3935,15 @@
         <v>45231</v>
       </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -3947,13 +3955,15 @@
         <v>45261</v>
       </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -3961,8 +3971,8 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
-        <v>45292</v>
+      <c r="A60" s="48" t="s">
+        <v>76</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -3980,7 +3990,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -3994,12 +4004,12 @@
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
-        <v>45352</v>
-      </c>
+      <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
@@ -4016,7 +4026,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4034,7 +4044,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4052,7 +4062,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4070,7 +4080,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4088,7 +4098,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4106,7 +4116,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4124,7 +4134,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4142,7 +4152,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -4160,7 +4170,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -4178,7 +4188,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -4196,7 +4206,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -4214,7 +4224,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4232,7 +4242,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4250,7 +4260,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4268,7 +4278,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4286,7 +4296,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4304,7 +4314,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4322,7 +4332,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4340,7 +4350,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4358,7 +4368,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4376,7 +4386,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4394,7 +4404,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4412,7 +4422,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4430,7 +4440,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4448,7 +4458,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4466,7 +4476,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4484,7 +4494,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4502,7 +4512,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4520,7 +4530,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4538,7 +4548,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4556,7 +4566,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4574,7 +4584,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4592,7 +4602,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4610,7 +4620,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4628,7 +4638,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4646,7 +4656,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4664,7 +4674,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4682,7 +4692,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4700,7 +4710,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4718,7 +4728,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4736,7 +4746,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4754,7 +4764,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4772,7 +4782,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4790,7 +4800,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4808,7 +4818,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4826,7 +4836,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4844,7 +4854,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4862,7 +4872,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4880,7 +4890,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -4898,7 +4908,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -4916,7 +4926,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -4934,7 +4944,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -4952,7 +4962,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -4970,7 +4980,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -4988,7 +4998,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5006,7 +5016,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5024,7 +5034,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5042,7 +5052,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5060,7 +5070,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5078,7 +5088,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5096,7 +5106,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5114,7 +5124,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5132,7 +5142,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5149,7 +5159,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>47239</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5165,7 +5177,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>47270</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5309,20 +5323,52 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
+++ b/CASUAL/LA ONT/TINAZA, JHOANNA MARIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD0D233-916A-4911-8494-CA72D38EB585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,8 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,13 +269,19 @@
     <t>2024</t>
   </si>
   <si>
-    <t>02/16,19-23,26-29/2024</t>
+    <t>VL(19-0-0)</t>
+  </si>
+  <si>
+    <t>3/1-27/2024</t>
+  </si>
+  <si>
+    <t>2/16,19-29/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -961,7 +969,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1004,7 +1012,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1068,7 +1076,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1136,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1194,7 +1202,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1265,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1363,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1422,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1487,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1530,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1605,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1791,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1857,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1907,7 +1915,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1981,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2029,7 +2037,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2112,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2147,7 +2155,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2213,7 +2221,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2269,7 +2277,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2348,7 +2356,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2365,25 +2373,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2690,7 +2698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2700,7 +2708,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2708,34 +2716,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2756,7 +2764,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2778,7 +2786,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2800,7 +2808,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2808,7 +2816,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2821,7 +2829,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2838,7 +2846,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2873,7 +2881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2882,7 +2890,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>3.6940000000000026</v>
+        <v>4.9440000000000026</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2892,12 +2900,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>33.75</v>
+        <v>35</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2919,7 +2927,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>44075</v>
       </c>
@@ -2939,7 +2947,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <f>EOMONTH(A11,1)</f>
         <v>44135</v>
@@ -2960,7 +2968,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A17" si="0">EOMONTH(A12,1)</f>
         <v>44165</v>
@@ -2981,7 +2989,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>44196</v>
@@ -3002,7 +3010,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>47</v>
       </c>
@@ -3020,7 +3028,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f>EOMONTH(A14,1)</f>
         <v>44227</v>
@@ -3041,7 +3049,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>44255</v>
@@ -3062,7 +3070,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>44286</v>
       </c>
@@ -3082,7 +3090,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>44316</v>
       </c>
@@ -3102,7 +3110,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>44347</v>
       </c>
@@ -3128,7 +3136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>44377</v>
       </c>
@@ -3150,7 +3158,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>44408</v>
       </c>
@@ -3170,7 +3178,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>44439</v>
       </c>
@@ -3190,7 +3198,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>44469</v>
       </c>
@@ -3210,7 +3218,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>44500</v>
       </c>
@@ -3230,7 +3238,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>44530</v>
       </c>
@@ -3250,7 +3258,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>44561</v>
       </c>
@@ -3274,7 +3282,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>48</v>
       </c>
@@ -3292,7 +3300,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>44592</v>
       </c>
@@ -3312,7 +3320,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>44620</v>
       </c>
@@ -3332,7 +3340,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44651</v>
       </c>
@@ -3352,7 +3360,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44681</v>
       </c>
@@ -3372,7 +3380,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>44712</v>
       </c>
@@ -3396,7 +3404,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44742</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -3442,7 +3450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>72</v>
@@ -3462,7 +3470,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44773</v>
       </c>
@@ -3488,7 +3496,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44804</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>44783</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44834</v>
       </c>
@@ -3532,7 +3540,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44865</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>59</v>
@@ -3580,7 +3588,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44895</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>75</v>
@@ -3626,7 +3634,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44926</v>
       </c>
@@ -3650,7 +3658,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>64</v>
       </c>
@@ -3668,7 +3676,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44927</v>
       </c>
@@ -3688,7 +3696,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44958</v>
       </c>
@@ -3708,7 +3716,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44986</v>
       </c>
@@ -3734,7 +3742,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>45017</v>
       </c>
@@ -3760,7 +3768,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>45047</v>
       </c>
@@ -3784,7 +3792,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>54</v>
@@ -3804,7 +3812,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>45078</v>
       </c>
@@ -3824,7 +3832,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>45108</v>
       </c>
@@ -3844,7 +3852,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>45139</v>
       </c>
@@ -3864,7 +3872,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>45170</v>
       </c>
@@ -3884,7 +3892,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>45200</v>
       </c>
@@ -3908,7 +3916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>70</v>
@@ -3930,7 +3938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>45231</v>
       </c>
@@ -3950,7 +3958,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>45261</v>
       </c>
@@ -3970,7 +3978,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="48" t="s">
         <v>76</v>
       </c>
@@ -3988,51 +3996,58 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>45292</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K61" s="20"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
-      <c r="B62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C62" s="13"/>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="F62" s="20">
+        <v>10</v>
+      </c>
+      <c r="G62" s="13"/>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
       <c r="J62" s="11"/>
-      <c r="K62" s="20"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K62" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>45323</v>
       </c>
-      <c r="B63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="20"/>
+      <c r="F63" s="20">
+        <v>19</v>
+      </c>
       <c r="G63" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -4040,9 +4055,11 @@
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="20"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K63" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>45352</v>
       </c>
@@ -4060,7 +4077,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>45383</v>
       </c>
@@ -4078,7 +4095,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>45413</v>
       </c>
@@ -4096,7 +4113,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>45444</v>
       </c>
@@ -4114,7 +4131,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>45474</v>
       </c>
@@ -4132,7 +4149,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>45505</v>
       </c>
@@ -4150,7 +4167,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>45536</v>
       </c>
@@ -4168,7 +4185,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>45566</v>
       </c>
@@ -4186,7 +4203,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45597</v>
       </c>
@@ -4204,7 +4221,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>45627</v>
       </c>
@@ -4222,7 +4239,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45658</v>
       </c>
@@ -4240,7 +4257,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>45689</v>
       </c>
@@ -4258,7 +4275,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45717</v>
       </c>
@@ -4276,7 +4293,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>45748</v>
       </c>
@@ -4294,7 +4311,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45778</v>
       </c>
@@ -4312,7 +4329,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45809</v>
       </c>
@@ -4330,7 +4347,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>45839</v>
       </c>
@@ -4348,7 +4365,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>45870</v>
       </c>
@@ -4366,7 +4383,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45901</v>
       </c>
@@ -4384,7 +4401,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45931</v>
       </c>
@@ -4402,7 +4419,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>45962</v>
       </c>
@@ -4420,7 +4437,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45992</v>
       </c>
@@ -4438,7 +4455,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>46023</v>
       </c>
@@ -4456,7 +4473,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>46054</v>
       </c>
@@ -4474,7 +4491,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>46082</v>
       </c>
@@ -4492,7 +4509,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>46113</v>
       </c>
@@ -4510,7 +4527,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>46143</v>
       </c>
@@ -4528,7 +4545,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>46174</v>
       </c>
@@ -4546,7 +4563,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>46204</v>
       </c>
@@ -4564,7 +4581,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>46235</v>
       </c>
@@ -4582,7 +4599,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>46266</v>
       </c>
@@ -4600,7 +4617,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>46296</v>
       </c>
@@ -4618,7 +4635,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>46327</v>
       </c>
@@ -4636,7 +4653,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>46357</v>
       </c>
@@ -4654,7 +4671,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>46388</v>
       </c>
@@ -4672,7 +4689,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>46419</v>
       </c>
@@ -4690,7 +4707,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>46447</v>
       </c>
@@ -4708,7 +4725,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>46478</v>
       </c>
@@ -4726,7 +4743,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>46508</v>
       </c>
@@ -4744,7 +4761,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>46539</v>
       </c>
@@ -4762,7 +4779,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>46569</v>
       </c>
@@ -4780,7 +4797,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>46600</v>
       </c>
@@ -4798,7 +4815,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>46631</v>
       </c>
@@ -4816,7 +4833,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>46661</v>
       </c>
@@ -4834,7 +4851,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>46692</v>
       </c>
@@ -4852,7 +4869,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>46722</v>
       </c>
@@ -4870,7 +4887,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>46753</v>
       </c>
@@ -4888,7 +4905,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>46784</v>
       </c>
@@ -4906,7 +4923,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>46813</v>
       </c>
@@ -4924,7 +4941,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>46844</v>
       </c>
@@ -4942,7 +4959,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>46874</v>
       </c>
@@ -4960,7 +4977,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>46905</v>
       </c>
@@ -4978,7 +4995,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>46935</v>
       </c>
@@ -4996,7 +5013,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>46966</v>
       </c>
@@ -5014,7 +5031,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>46997</v>
       </c>
@@ -5032,7 +5049,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>47027</v>
       </c>
@@ -5050,7 +5067,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>47058</v>
       </c>
@@ -5068,7 +5085,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>47088</v>
       </c>
@@ -5086,7 +5103,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>47119</v>
       </c>
@@ -5104,7 +5121,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>47150</v>
       </c>
@@ -5122,7 +5139,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>47178</v>
       </c>
@@ -5140,7 +5157,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>47209</v>
       </c>
@@ -5158,7 +5175,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>47239</v>
       </c>
@@ -5176,7 +5193,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>47270</v>
       </c>
@@ -5194,7 +5211,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5210,7 +5227,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5226,7 +5243,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5242,7 +5259,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5258,7 +5275,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5274,7 +5291,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5290,7 +5307,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5306,7 +5323,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5322,7 +5339,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5338,7 +5355,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5354,7 +5371,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="41"/>
       <c r="B138" s="15"/>
       <c r="C138" s="42"/>
@@ -5385,10 +5402,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5411,28 +5428,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5445,7 +5462,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5474,7 +5491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -5496,17 +5513,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5527,7 +5544,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5554,7 +5571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5580,7 +5597,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5606,7 +5623,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5632,7 +5649,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5658,7 +5675,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5684,7 +5701,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5710,7 +5727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5736,7 +5753,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5756,7 +5773,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5776,7 +5793,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5796,7 +5813,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5817,7 +5834,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5838,7 +5855,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5859,7 +5876,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5880,7 +5897,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5901,7 +5918,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5922,7 +5939,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5943,7 +5960,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5964,7 +5981,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5985,7 +6002,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6006,7 +6023,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6027,7 +6044,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6048,7 +6065,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6069,7 +6086,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6090,7 +6107,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6111,7 +6128,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6132,7 +6149,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6153,7 +6170,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6174,7 +6191,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6195,7 +6212,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6216,7 +6233,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6225,7 +6242,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6234,7 +6251,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6243,7 +6260,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6252,7 +6269,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6261,7 +6278,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6270,7 +6287,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6279,7 +6296,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6288,7 +6305,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6297,7 +6314,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6306,7 +6323,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6315,7 +6332,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6324,7 +6341,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6333,7 +6350,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6342,7 +6359,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6351,7 +6368,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6360,7 +6377,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6369,7 +6386,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6378,7 +6395,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6387,7 +6404,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6396,7 +6413,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6405,7 +6422,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6414,7 +6431,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6423,7 +6440,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6432,7 +6449,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6441,7 +6458,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6450,7 +6467,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6459,7 +6476,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6468,7 +6485,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6477,7 +6494,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
